--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_025.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_025.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Containment venting (Mark III)</t>
-  </si>
-  <si>
-    <t>(295027EK2.06) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
-  </si>
-  <si>
-    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295026EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
-  </si>
-  <si>
-    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
+    <t>(295001AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal limits</t>
+  </si>
+  <si>
+    <t>(295038EK2.13) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
   </si>
   <si>
     <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
   </si>
   <si>
-    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
-  </si>
-  <si>
-    <t>(295003AA1.02) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Emergency generators</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295031EK2.22) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(500000EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Oxygen monitoring availability</t>
-  </si>
-  <si>
-    <t>(295009AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Recirculation pump net positive suction head</t>
-  </si>
-  <si>
-    <t>(295017AA1.13) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Control room heating, ventilation and air conditioning</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295014AK2.01) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(259002K3.02) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(264000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency core cooling systems</t>
-  </si>
-  <si>
-    <t>(209001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System lineup</t>
-  </si>
-  <si>
-    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002K4.08) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual defeating of selected isolations during specified emergency conditions</t>
-  </si>
-  <si>
-    <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
-  </si>
-  <si>
-    <t>(215003K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Gamma discrimination</t>
-  </si>
-  <si>
-    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
-  </si>
-  <si>
-    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
-  </si>
-  <si>
-    <t>(261000A2.01) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low system flow</t>
-  </si>
-  <si>
-    <t>(217000K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215005K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) IRM system</t>
-  </si>
-  <si>
-    <t>(239002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Turbine load</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (291006K1.08) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Relationship between flow rates and temperatures</t>
-  </si>
-  <si>
-    <t>(209002K4.10) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Uniform core spray coverage</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
-  </si>
-  <si>
-    <t>(263000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295019AK2.07) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(295006AA1.04) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295021AK2.08) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Alternate decay heat removal systems</t>
+  </si>
+  <si>
+    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295026EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Suppression pool spray</t>
+  </si>
+  <si>
+    <t>(295031EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295030EK2.03) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
+  </si>
+  <si>
+    <t>(295007AA1.05) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Component erosion/damage</t>
+  </si>
+  <si>
+    <t>(295034EK2.02) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Area radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295009AA2.01) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(203000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(215003K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
+  </si>
+  <si>
+    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
+  </si>
+  <si>
+    <t>(212000K4.12) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(217000A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(263000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Station blackout</t>
+  </si>
+  <si>
+    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
+  </si>
+  <si>
+    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215005A4.04) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) LPRM back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(259002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Rod worth minimizer</t>
+  </si>
+  <si>
+    <t>(205000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump/system discharge pressure</t>
+  </si>
+  <si>
+    <t>(211000K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(264000K4.03) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Generator droop control</t>
+  </si>
+  <si>
+    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
+  </si>
+  <si>
+    <t>(261000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Reactor vessel level</t>
   </si>
   <si>
     <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
   </si>
   <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(259002K3.06) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(264000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(209001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
-  </si>
-  <si>
-    <t>(202002A3.04) Ability to monitor automatic operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System lockups/lockouts</t>
-  </si>
-  <si>
-    <t>(239001A2.06) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trip without bypass valves</t>
-  </si>
-  <si>
-    <t>(202001K3.12) Knowledge of the effect that a loss or malfunction of the (SF1, SF4 RS) RECIRCULATION SYSTEM will have on the following systems or system parameters: (CFR: 41.5 to 41.7 / 45.4) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(201003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(219000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Suppression chamber air temperature</t>
-  </si>
-  <si>
-    <t>(201001A4.05) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) Cooling water header pressure control valve</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(233000K4.06) Knowledge of (SF9 FPCCU) FUEL POOL COOLING/CLEANUP design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining adequate pool level</t>
-  </si>
-  <si>
-    <t>(234000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fuel pool ventilation malfunction</t>
-  </si>
-  <si>
-    <t>(201005K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Low-power alarm point</t>
-  </si>
-  <si>
-    <t>(288000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 PVS) PLANT VENTILATION SYSTEMS : (CFR: 41.7 / 45.7) Heating, ventilation, and air conditioning system cooling water systems</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (291007K1.09) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Effects of demineralizer operation on water conductivity</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(223002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(203000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(215003K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(212000K4.08) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SCRAM reset time delay</t>
+  </si>
+  <si>
+    <t>(290001A4.11) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
+  </si>
+  <si>
+    <t>(233000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety-related service water</t>
+  </si>
+  <si>
+    <t>(290003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.5 / 45.5) Toxic gas</t>
+  </si>
+  <si>
+    <t>(202001K3.16) Knowledge of the effect that a loss or malfunction of the (SF1, SF4 RS) RECIRCULATION SYSTEM will have on the following systems or system parameters: (CFR: 41.5 to 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(271000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.4) Heat removal mechanisms</t>
+  </si>
+  <si>
+    <t>(201003K4.04) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Scramming of the control rod with accumulator or RPV pressure</t>
+  </si>
+  <si>
+    <t>(201001A2.09) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Loss of applicable plant air systems</t>
+  </si>
+  <si>
+    <t>(259001K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater pump motor ventilation: motor-driven only</t>
+  </si>
+  <si>
+    <t>(215001A3.03) Ability to monitor automatic operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.7 / 45.7) Valve operation (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(286000K2.02) (SF8 FPS) FIRE PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Fire pumps</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292006K1.07) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Xenon following a SCRAM</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(293008K1.25) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the reason for forced core recirculation</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Containment radiation levels (Mark III)</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295020AA2.06) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Cause of isolation</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002A2.04) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Process radiation monitoring system failures</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215003A2.05) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(204000A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) RWCU pump seal failure</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292008K1.27) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain reactor power response to a control rod insertion</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
+  </si>
+  <si>
+    <t>(293008K1.26) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the jet pump operating principle</t>
+  </si>
+  <si>
+    <t>(295001AA2.08) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
+  </si>
+  <si>
+    <t>(295017AA2.05) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295022AA2.05) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(217000A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trips</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209002A2.21) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent initiation</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239003A2.05) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inboard system logic failure</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295001</t>
+    <t>295025</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>500000</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295009</t>
   </si>
   <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
     <t>295017</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2449,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
